--- a/Develop/Users/HoangNK/UT/HoangNK_KW_UnitTest_30112015.xlsx
+++ b/Develop/Users/HoangNK/UT/HoangNK_KW_UnitTest_30112015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="713" firstSheet="19" activeTab="25"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="713" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -2068,7 +2068,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd"/>
     <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yy;@"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2423,6 +2423,12 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3953,7 +3959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -4603,50 +4609,20 @@
     <xf numFmtId="14" fontId="41" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="29" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="77" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="29" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="71" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="81" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -4669,11 +4645,20 @@
     <xf numFmtId="0" fontId="35" fillId="29" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="71" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="29" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="29" borderId="48" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -4702,20 +4687,41 @@
     <xf numFmtId="0" fontId="36" fillId="24" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="76" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
+    <xf numFmtId="49" fontId="38" fillId="29" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="33" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="77" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="29" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="67" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="44" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -4729,6 +4735,15 @@
     <xf numFmtId="0" fontId="35" fillId="28" borderId="84" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="35" fillId="29" borderId="65" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4738,14 +4753,14 @@
     <xf numFmtId="0" fontId="35" fillId="29" borderId="77" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="56" fillId="24" borderId="94" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="94" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="73" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="97" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -6898,59 +6913,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$23</f>
         <v>getIssueDetail</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -6959,117 +6974,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.28</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>1</v>
@@ -7082,15 +7097,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -7350,8 +7365,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -7826,11 +7841,11 @@
       <c r="A39" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="209"/>
       <c r="F39" s="98" t="s">
         <v>19</v>
@@ -7854,11 +7869,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="83"/>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="74"/>
       <c r="F40" s="100" t="s">
         <v>23</v>
@@ -7882,11 +7897,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="68"/>
       <c r="F41" s="75">
         <v>42254</v>
@@ -7910,11 +7925,11 @@
     </row>
     <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="84"/>
-      <c r="B42" s="279" t="s">
+      <c r="B42" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="279"/>
-      <c r="D42" s="279"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="77"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
@@ -7937,14 +7952,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -7960,11 +7972,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
@@ -8015,59 +8030,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$23</f>
         <v>getIssueDetail</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -8076,117 +8091,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.28</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>1</v>
@@ -8199,15 +8214,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -8467,8 +8482,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -8943,11 +8958,11 @@
       <c r="A39" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="209"/>
       <c r="F39" s="98" t="s">
         <v>19</v>
@@ -8971,11 +8986,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="83"/>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="74"/>
       <c r="F40" s="100" t="s">
         <v>23</v>
@@ -8999,11 +9014,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="68"/>
       <c r="F41" s="75">
         <v>42254</v>
@@ -9027,11 +9042,11 @@
     </row>
     <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="84"/>
-      <c r="B42" s="279" t="s">
+      <c r="B42" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="279"/>
-      <c r="D42" s="279"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="77"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
@@ -9054,14 +9069,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -9077,11 +9089,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
@@ -9132,59 +9147,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$23</f>
         <v>getIssueDetail</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -9193,117 +9208,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.28</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>1</v>
@@ -9316,15 +9331,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -9584,8 +9599,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -10060,11 +10075,11 @@
       <c r="A39" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="209"/>
       <c r="F39" s="98" t="s">
         <v>19</v>
@@ -10088,11 +10103,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="83"/>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="74"/>
       <c r="F40" s="100" t="s">
         <v>23</v>
@@ -10116,11 +10131,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="68"/>
       <c r="F41" s="75">
         <v>42254</v>
@@ -10144,11 +10159,11 @@
     </row>
     <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="84"/>
-      <c r="B42" s="279" t="s">
+      <c r="B42" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="279"/>
-      <c r="D42" s="279"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="77"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
@@ -10171,14 +10186,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -10194,11 +10206,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
@@ -10249,59 +10264,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$23</f>
         <v>getIssueDetail</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -10310,117 +10325,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.28</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>1</v>
@@ -10433,15 +10448,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -10701,8 +10716,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -11177,11 +11192,11 @@
       <c r="A39" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="209"/>
       <c r="F39" s="98" t="s">
         <v>19</v>
@@ -11205,11 +11220,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="83"/>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="74"/>
       <c r="F40" s="100" t="s">
         <v>23</v>
@@ -11233,11 +11248,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="68"/>
       <c r="F41" s="75">
         <v>42254</v>
@@ -11261,11 +11276,11 @@
     </row>
     <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="84"/>
-      <c r="B42" s="279" t="s">
+      <c r="B42" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="279"/>
-      <c r="D42" s="279"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="77"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
@@ -11288,14 +11303,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -11311,11 +11323,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
@@ -11366,59 +11381,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$23</f>
         <v>getIssueDetail</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -11427,117 +11442,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.28</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>1</v>
@@ -11550,15 +11565,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -11818,8 +11833,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -12294,11 +12309,11 @@
       <c r="A39" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="170"/>
       <c r="F39" s="98" t="s">
         <v>19</v>
@@ -12322,11 +12337,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="83"/>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="74"/>
       <c r="F40" s="100" t="s">
         <v>23</v>
@@ -12350,11 +12365,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="68"/>
       <c r="F41" s="75">
         <v>42254</v>
@@ -12378,11 +12393,11 @@
     </row>
     <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="84"/>
-      <c r="B42" s="279" t="s">
+      <c r="B42" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="279"/>
-      <c r="D42" s="279"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="77"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
@@ -12405,11 +12420,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -12425,14 +12443,11 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -12489,59 +12504,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$22</f>
         <v>postNewLedger</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -12550,117 +12565,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>17</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.64</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F41:HQ41,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F41:HQ41,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E40:HQ40,"N")</f>
         <v>1</v>
@@ -12673,15 +12688,15 @@
         <f>COUNTIF(E40:HQ40,"B")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -12935,8 +12950,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -13431,11 +13446,11 @@
       <c r="A40" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="276" t="s">
+      <c r="B40" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="276"/>
-      <c r="D40" s="276"/>
+      <c r="C40" s="243"/>
+      <c r="D40" s="243"/>
       <c r="E40" s="170"/>
       <c r="F40" s="98" t="s">
         <v>20</v>
@@ -13461,11 +13476,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="277" t="s">
+      <c r="B41" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="277"/>
-      <c r="D41" s="277"/>
+      <c r="C41" s="244"/>
+      <c r="D41" s="244"/>
       <c r="E41" s="74"/>
       <c r="F41" s="100" t="s">
         <v>23</v>
@@ -13491,11 +13506,11 @@
     </row>
     <row r="42" spans="1:20" ht="13.5" customHeight="1">
       <c r="A42" s="83"/>
-      <c r="B42" s="278" t="s">
+      <c r="B42" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="278"/>
-      <c r="D42" s="278"/>
+      <c r="C42" s="245"/>
+      <c r="D42" s="245"/>
       <c r="E42" s="68"/>
       <c r="F42" s="75">
         <v>42254</v>
@@ -13521,11 +13536,11 @@
     </row>
     <row r="43" spans="1:20" ht="11.25" thickBot="1">
       <c r="A43" s="84"/>
-      <c r="B43" s="279" t="s">
+      <c r="B43" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
+      <c r="C43" s="246"/>
+      <c r="D43" s="246"/>
       <c r="E43" s="77"/>
       <c r="F43" s="78"/>
       <c r="G43" s="78"/>
@@ -13548,11 +13563,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -13568,14 +13586,11 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -13632,59 +13647,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$21</f>
         <v>updateLedgerForOrder</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -13693,117 +13708,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>17</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.64</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F41:HQ41,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F41:HQ41,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E40:HQ40,"N")</f>
         <v>1</v>
@@ -13816,15 +13831,15 @@
         <f>COUNTIF(E40:HQ40,"B")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -14078,8 +14093,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -14574,11 +14589,11 @@
       <c r="A40" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="276" t="s">
+      <c r="B40" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="276"/>
-      <c r="D40" s="276"/>
+      <c r="C40" s="243"/>
+      <c r="D40" s="243"/>
       <c r="E40" s="170"/>
       <c r="F40" s="98" t="s">
         <v>20</v>
@@ -14604,11 +14619,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="277" t="s">
+      <c r="B41" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="277"/>
-      <c r="D41" s="277"/>
+      <c r="C41" s="244"/>
+      <c r="D41" s="244"/>
       <c r="E41" s="74"/>
       <c r="F41" s="100" t="s">
         <v>23</v>
@@ -14634,11 +14649,11 @@
     </row>
     <row r="42" spans="1:20" ht="13.5" customHeight="1">
       <c r="A42" s="83"/>
-      <c r="B42" s="278" t="s">
+      <c r="B42" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="278"/>
-      <c r="D42" s="278"/>
+      <c r="C42" s="245"/>
+      <c r="D42" s="245"/>
       <c r="E42" s="68"/>
       <c r="F42" s="75">
         <v>42254</v>
@@ -14664,11 +14679,11 @@
     </row>
     <row r="43" spans="1:20" ht="11.25" thickBot="1">
       <c r="A43" s="84"/>
-      <c r="B43" s="279" t="s">
+      <c r="B43" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
+      <c r="C43" s="246"/>
+      <c r="D43" s="246"/>
       <c r="E43" s="77"/>
       <c r="F43" s="78"/>
       <c r="G43" s="78"/>
@@ -14691,11 +14706,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -14711,14 +14729,11 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -14775,59 +14790,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$20</f>
         <v>getLatestOrderOfStore</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -14836,117 +14851,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>21</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.32</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F41:HQ41,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F41:HQ41,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E40:HQ40,"N")</f>
         <v>1</v>
@@ -14959,15 +14974,15 @@
         <f>COUNTIF(E40:HQ40,"B")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -15221,8 +15236,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -15717,11 +15732,11 @@
       <c r="A40" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="276" t="s">
+      <c r="B40" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="276"/>
-      <c r="D40" s="276"/>
+      <c r="C40" s="243"/>
+      <c r="D40" s="243"/>
       <c r="E40" s="170"/>
       <c r="F40" s="98" t="s">
         <v>20</v>
@@ -15747,11 +15762,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="277" t="s">
+      <c r="B41" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="277"/>
-      <c r="D41" s="277"/>
+      <c r="C41" s="244"/>
+      <c r="D41" s="244"/>
       <c r="E41" s="74"/>
       <c r="F41" s="100" t="s">
         <v>23</v>
@@ -15777,11 +15792,11 @@
     </row>
     <row r="42" spans="1:20" ht="13.5" customHeight="1">
       <c r="A42" s="83"/>
-      <c r="B42" s="278" t="s">
+      <c r="B42" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="278"/>
-      <c r="D42" s="278"/>
+      <c r="C42" s="245"/>
+      <c r="D42" s="245"/>
       <c r="E42" s="68"/>
       <c r="F42" s="75">
         <v>42254</v>
@@ -15807,11 +15822,11 @@
     </row>
     <row r="43" spans="1:20" ht="11.25" thickBot="1">
       <c r="A43" s="84"/>
-      <c r="B43" s="279" t="s">
+      <c r="B43" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
+      <c r="C43" s="246"/>
+      <c r="D43" s="246"/>
       <c r="E43" s="77"/>
       <c r="F43" s="78"/>
       <c r="G43" s="78"/>
@@ -15834,11 +15849,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -15854,14 +15872,11 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -15918,59 +15933,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$19</f>
         <v>getAllShipper</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -15979,117 +15994,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>21</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.32</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F41:HQ41,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F41:HQ41,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E40:HQ40,"N")</f>
         <v>1</v>
@@ -16102,15 +16117,15 @@
         <f>COUNTIF(E40:HQ40,"B")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -16364,8 +16379,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -16860,11 +16875,11 @@
       <c r="A40" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="276" t="s">
+      <c r="B40" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="276"/>
-      <c r="D40" s="276"/>
+      <c r="C40" s="243"/>
+      <c r="D40" s="243"/>
       <c r="E40" s="170"/>
       <c r="F40" s="98" t="s">
         <v>20</v>
@@ -16890,11 +16905,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="277" t="s">
+      <c r="B41" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="277"/>
-      <c r="D41" s="277"/>
+      <c r="C41" s="244"/>
+      <c r="D41" s="244"/>
       <c r="E41" s="74"/>
       <c r="F41" s="100" t="s">
         <v>23</v>
@@ -16920,11 +16935,11 @@
     </row>
     <row r="42" spans="1:20" ht="13.5" customHeight="1">
       <c r="A42" s="83"/>
-      <c r="B42" s="278" t="s">
+      <c r="B42" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="278"/>
-      <c r="D42" s="278"/>
+      <c r="C42" s="245"/>
+      <c r="D42" s="245"/>
       <c r="E42" s="68"/>
       <c r="F42" s="75">
         <v>42254</v>
@@ -16950,11 +16965,11 @@
     </row>
     <row r="43" spans="1:20" ht="11.25" thickBot="1">
       <c r="A43" s="84"/>
-      <c r="B43" s="279" t="s">
+      <c r="B43" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
+      <c r="C43" s="246"/>
+      <c r="D43" s="246"/>
       <c r="E43" s="77"/>
       <c r="F43" s="78"/>
       <c r="G43" s="78"/>
@@ -16977,11 +16992,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -16997,14 +17015,11 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -17063,59 +17078,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$18</f>
         <v>updateTaskForShipper</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -17124,117 +17139,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>10</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-14.2</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F51:HT51,"P")</f>
         <v>15</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F51:HT51,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E50:HT50,"N")</f>
         <v>1</v>
@@ -17247,15 +17262,15 @@
         <f>COUNTIF(E50:HT50,"B")</f>
         <v>3</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HW9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:26" ht="11.25" thickBot="1"/>
@@ -17565,10 +17580,10 @@
       <c r="A18" s="81"/>
       <c r="B18" s="50"/>
       <c r="C18" s="51"/>
-      <c r="D18" s="275">
+      <c r="D18" s="242">
         <v>-1</v>
       </c>
-      <c r="E18" s="275"/>
+      <c r="E18" s="242"/>
       <c r="F18" s="90"/>
       <c r="G18" s="90" t="s">
         <v>36</v>
@@ -18539,11 +18554,11 @@
       <c r="A50" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="276" t="s">
+      <c r="B50" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="276"/>
-      <c r="D50" s="276"/>
+      <c r="C50" s="243"/>
+      <c r="D50" s="243"/>
       <c r="E50" s="165"/>
       <c r="F50" s="98" t="s">
         <v>21</v>
@@ -18596,11 +18611,11 @@
     </row>
     <row r="51" spans="1:23" ht="13.5" customHeight="1">
       <c r="A51" s="83"/>
-      <c r="B51" s="277" t="s">
+      <c r="B51" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="277"/>
-      <c r="D51" s="277"/>
+      <c r="C51" s="244"/>
+      <c r="D51" s="244"/>
       <c r="E51" s="74"/>
       <c r="F51" s="100" t="s">
         <v>23</v>
@@ -18653,11 +18668,11 @@
     </row>
     <row r="52" spans="1:23" ht="13.5" customHeight="1">
       <c r="A52" s="83"/>
-      <c r="B52" s="278" t="s">
+      <c r="B52" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="278"/>
-      <c r="D52" s="278"/>
+      <c r="C52" s="245"/>
+      <c r="D52" s="245"/>
       <c r="E52" s="68"/>
       <c r="F52" s="75">
         <v>42254</v>
@@ -18710,11 +18725,11 @@
     </row>
     <row r="53" spans="1:23" ht="11.25" thickBot="1">
       <c r="A53" s="84"/>
-      <c r="B53" s="279" t="s">
+      <c r="B53" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="279"/>
-      <c r="D53" s="279"/>
+      <c r="C53" s="246"/>
+      <c r="D53" s="246"/>
       <c r="E53" s="77"/>
       <c r="F53" s="78"/>
       <c r="G53" s="78"/>
@@ -18740,14 +18755,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -18763,11 +18775,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -18799,8 +18814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
@@ -19073,7 +19088,7 @@
       </c>
       <c r="B19" s="192"/>
       <c r="C19" s="192"/>
-      <c r="D19" s="193" t="s">
+      <c r="D19" s="290" t="s">
         <v>212</v>
       </c>
       <c r="E19" s="194"/>
@@ -19153,7 +19168,7 @@
       </c>
       <c r="B24" s="192"/>
       <c r="C24" s="192"/>
-      <c r="D24" s="193" t="s">
+      <c r="D24" s="290" t="s">
         <v>217</v>
       </c>
       <c r="E24" s="194"/>
@@ -19169,7 +19184,7 @@
       </c>
       <c r="B25" s="200"/>
       <c r="C25" s="200"/>
-      <c r="D25" s="199" t="s">
+      <c r="D25" s="291" t="s">
         <v>218</v>
       </c>
       <c r="E25" s="201"/>
@@ -19201,7 +19216,7 @@
       </c>
       <c r="B27" s="200"/>
       <c r="C27" s="200"/>
-      <c r="D27" s="199" t="s">
+      <c r="D27" s="291" t="s">
         <v>220</v>
       </c>
       <c r="E27" s="201"/>
@@ -19233,7 +19248,7 @@
       </c>
       <c r="B29" s="200"/>
       <c r="C29" s="200"/>
-      <c r="D29" s="199" t="s">
+      <c r="D29" s="291" t="s">
         <v>222</v>
       </c>
       <c r="E29" s="201"/>
@@ -19249,7 +19264,7 @@
       </c>
       <c r="B30" s="200"/>
       <c r="C30" s="200"/>
-      <c r="D30" s="199" t="s">
+      <c r="D30" s="291" t="s">
         <v>224</v>
       </c>
       <c r="E30" s="201"/>
@@ -19265,7 +19280,7 @@
       </c>
       <c r="B31" s="200"/>
       <c r="C31" s="200"/>
-      <c r="D31" s="199" t="s">
+      <c r="D31" s="291" t="s">
         <v>223</v>
       </c>
       <c r="E31" s="201"/>
@@ -19281,7 +19296,7 @@
       </c>
       <c r="B32" s="204"/>
       <c r="C32" s="204"/>
-      <c r="D32" s="205" t="s">
+      <c r="D32" s="292" t="s">
         <v>225</v>
       </c>
       <c r="E32" s="206"/>
@@ -19368,59 +19383,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$17</f>
         <v>getAllOrderToAssignTask</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -19429,117 +19444,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>10</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-3.2</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F41:HQ41,"P")</f>
         <v>4</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F41:HQ41,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E40:HQ40,"N")</f>
         <v>1</v>
@@ -19552,15 +19567,15 @@
         <f>COUNTIF(E40:HQ40,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>4</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -19849,7 +19864,7 @@
       <c r="A20" s="81"/>
       <c r="B20" s="50"/>
       <c r="C20" s="51"/>
-      <c r="D20" s="275" t="s">
+      <c r="D20" s="242" t="s">
         <v>157</v>
       </c>
       <c r="E20" s="283"/>
@@ -20318,11 +20333,11 @@
       <c r="A40" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="276" t="s">
+      <c r="B40" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="276"/>
-      <c r="D40" s="276"/>
+      <c r="C40" s="243"/>
+      <c r="D40" s="243"/>
       <c r="E40" s="165"/>
       <c r="F40" s="98" t="s">
         <v>21</v>
@@ -20350,11 +20365,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="277" t="s">
+      <c r="B41" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="277"/>
-      <c r="D41" s="277"/>
+      <c r="C41" s="244"/>
+      <c r="D41" s="244"/>
       <c r="E41" s="74"/>
       <c r="F41" s="100" t="s">
         <v>23</v>
@@ -20382,11 +20397,11 @@
     </row>
     <row r="42" spans="1:20" ht="13.5" customHeight="1">
       <c r="A42" s="83"/>
-      <c r="B42" s="278" t="s">
+      <c r="B42" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="278"/>
-      <c r="D42" s="278"/>
+      <c r="C42" s="245"/>
+      <c r="D42" s="245"/>
       <c r="E42" s="68"/>
       <c r="F42" s="75">
         <v>42254</v>
@@ -20414,11 +20429,11 @@
     </row>
     <row r="43" spans="1:20" ht="11.25" thickBot="1">
       <c r="A43" s="84"/>
-      <c r="B43" s="279" t="s">
+      <c r="B43" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
+      <c r="C43" s="246"/>
+      <c r="D43" s="246"/>
       <c r="E43" s="77"/>
       <c r="F43" s="78"/>
       <c r="G43" s="78"/>
@@ -20441,14 +20456,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -20464,11 +20476,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -20525,59 +20540,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$16</f>
         <v>getAllShipperWithTask</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -20586,117 +20601,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-2.2800000000000002</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>1</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>3</v>
@@ -20709,15 +20724,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -20973,8 +20988,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -21431,11 +21446,11 @@
       <c r="A39" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="165"/>
       <c r="F39" s="98" t="s">
         <v>19</v>
@@ -21461,11 +21476,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="83"/>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="74"/>
       <c r="F40" s="100" t="s">
         <v>23</v>
@@ -21491,11 +21506,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="68"/>
       <c r="F41" s="75">
         <v>42254</v>
@@ -21521,11 +21536,11 @@
     </row>
     <row r="42" spans="1:20" ht="86.25" thickBot="1">
       <c r="A42" s="84"/>
-      <c r="B42" s="279" t="s">
+      <c r="B42" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="279"/>
-      <c r="D42" s="279"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="77"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
@@ -21550,14 +21565,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -21573,11 +21585,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -21634,59 +21649,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$15</f>
         <v>createStoreID</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -21695,117 +21710,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>19</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.48</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>2</v>
@@ -21818,15 +21833,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -22082,8 +22097,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -22542,11 +22557,11 @@
       <c r="A39" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="165"/>
       <c r="F39" s="98" t="s">
         <v>21</v>
@@ -22572,11 +22587,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="83"/>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="74"/>
       <c r="F40" s="100" t="s">
         <v>23</v>
@@ -22602,11 +22617,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="68"/>
       <c r="F41" s="75">
         <v>42254</v>
@@ -22632,11 +22647,11 @@
     </row>
     <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="84"/>
-      <c r="B42" s="279" t="s">
+      <c r="B42" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="279"/>
-      <c r="D42" s="279"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="77"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
@@ -22659,14 +22674,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -22682,11 +22694,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -22743,59 +22758,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$14</f>
         <v>postNewStore</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -22804,117 +22819,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>14</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-3.88</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F43:HQ43,"P")</f>
         <v>5</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F43:HQ43,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E42:HQ42,"N")</f>
         <v>4</v>
@@ -22927,15 +22942,15 @@
         <f>COUNTIF(E42:HQ42,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>5</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -23203,8 +23218,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -23747,11 +23762,11 @@
       <c r="A42" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="276" t="s">
+      <c r="B42" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="276"/>
-      <c r="D42" s="276"/>
+      <c r="C42" s="243"/>
+      <c r="D42" s="243"/>
       <c r="E42" s="165"/>
       <c r="F42" s="98" t="s">
         <v>19</v>
@@ -23781,11 +23796,11 @@
     </row>
     <row r="43" spans="1:20" ht="13.5" customHeight="1">
       <c r="A43" s="83"/>
-      <c r="B43" s="277" t="s">
+      <c r="B43" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="277"/>
-      <c r="D43" s="277"/>
+      <c r="C43" s="244"/>
+      <c r="D43" s="244"/>
       <c r="E43" s="74"/>
       <c r="F43" s="100" t="s">
         <v>23</v>
@@ -23815,11 +23830,11 @@
     </row>
     <row r="44" spans="1:20" ht="13.5" customHeight="1">
       <c r="A44" s="83"/>
-      <c r="B44" s="278" t="s">
+      <c r="B44" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="278"/>
-      <c r="D44" s="278"/>
+      <c r="C44" s="245"/>
+      <c r="D44" s="245"/>
       <c r="E44" s="68"/>
       <c r="F44" s="75">
         <v>42254</v>
@@ -23849,11 +23864,11 @@
     </row>
     <row r="45" spans="1:20" ht="11.25" thickBot="1">
       <c r="A45" s="84"/>
-      <c r="B45" s="279" t="s">
+      <c r="B45" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="279"/>
-      <c r="D45" s="279"/>
+      <c r="C45" s="246"/>
+      <c r="D45" s="246"/>
       <c r="E45" s="77"/>
       <c r="F45" s="78"/>
       <c r="G45" s="78"/>
@@ -23876,14 +23891,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -23899,11 +23911,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -23960,59 +23975,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$13</f>
         <v>addNewUser</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -24021,117 +24036,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>34</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.2799999999999998</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F42:HQ42,"P")</f>
         <v>4</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F42:HQ42,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E41:HQ41,"N")</f>
         <v>2</v>
@@ -24144,15 +24159,15 @@
         <f>COUNTIF(E41:HQ41,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>4</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -24414,8 +24429,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -24930,11 +24945,11 @@
       <c r="A41" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="276" t="s">
+      <c r="B41" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="276"/>
-      <c r="D41" s="276"/>
+      <c r="C41" s="243"/>
+      <c r="D41" s="243"/>
       <c r="E41" s="127"/>
       <c r="F41" s="98" t="s">
         <v>21</v>
@@ -24962,11 +24977,11 @@
     </row>
     <row r="42" spans="1:20" ht="13.5" customHeight="1">
       <c r="A42" s="83"/>
-      <c r="B42" s="277" t="s">
+      <c r="B42" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="277"/>
-      <c r="D42" s="277"/>
+      <c r="C42" s="244"/>
+      <c r="D42" s="244"/>
       <c r="E42" s="74"/>
       <c r="F42" s="100" t="s">
         <v>23</v>
@@ -24994,11 +25009,11 @@
     </row>
     <row r="43" spans="1:20" ht="13.5" customHeight="1">
       <c r="A43" s="83"/>
-      <c r="B43" s="278" t="s">
+      <c r="B43" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="278"/>
-      <c r="D43" s="278"/>
+      <c r="C43" s="245"/>
+      <c r="D43" s="245"/>
       <c r="E43" s="68"/>
       <c r="F43" s="75">
         <v>42254</v>
@@ -25028,11 +25043,11 @@
     </row>
     <row r="44" spans="1:20" ht="11.25" thickBot="1">
       <c r="A44" s="84"/>
-      <c r="B44" s="279" t="s">
+      <c r="B44" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="279"/>
-      <c r="D44" s="279"/>
+      <c r="C44" s="246"/>
+      <c r="D44" s="246"/>
       <c r="E44" s="77"/>
       <c r="F44" s="78"/>
       <c r="G44" s="78"/>
@@ -25055,14 +25070,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -25078,11 +25090,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -25139,56 +25154,56 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="284">
+      <c r="B2" s="269"/>
+      <c r="C2" s="287">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="288"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$12</f>
         <v>createShipperID</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
       <c r="L3" s="281"/>
       <c r="M3" s="281"/>
       <c r="N3" s="281"/>
@@ -25200,117 +25215,117 @@
       <c r="T3" s="163"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="287">
+      <c r="B4" s="255"/>
+      <c r="C4" s="284">
         <v>14</v>
       </c>
-      <c r="D4" s="267"/>
+      <c r="D4" s="260"/>
       <c r="E4" s="164"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-6.88</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="288" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="285" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="288"/>
-      <c r="E5" s="288"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
-      <c r="I5" s="289"/>
-      <c r="J5" s="289"/>
-      <c r="K5" s="289"/>
-      <c r="L5" s="288"/>
-      <c r="M5" s="288"/>
-      <c r="N5" s="288"/>
-      <c r="O5" s="288"/>
-      <c r="P5" s="288"/>
-      <c r="Q5" s="288"/>
-      <c r="R5" s="288"/>
-      <c r="S5" s="288"/>
-      <c r="T5" s="288"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286"/>
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="285"/>
+      <c r="M5" s="285"/>
+      <c r="N5" s="285"/>
+      <c r="O5" s="285"/>
+      <c r="P5" s="285"/>
+      <c r="Q5" s="285"/>
+      <c r="R5" s="285"/>
+      <c r="S5" s="285"/>
+      <c r="T5" s="285"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F44:HQ44,"P")</f>
         <v>8</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F44:HQ44,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E43:HQ43,"N")</f>
         <v>4</v>
@@ -25323,15 +25338,15 @@
         <f>COUNTIF(E43:HQ43,"B")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>8</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -25615,8 +25630,8 @@
         <v>101</v>
       </c>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -26205,11 +26220,11 @@
       <c r="A43" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="276" t="s">
+      <c r="B43" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="276"/>
-      <c r="D43" s="276"/>
+      <c r="C43" s="243"/>
+      <c r="D43" s="243"/>
       <c r="E43" s="125"/>
       <c r="F43" s="98" t="s">
         <v>21</v>
@@ -26245,11 +26260,11 @@
     </row>
     <row r="44" spans="1:20" ht="13.5" customHeight="1">
       <c r="A44" s="83"/>
-      <c r="B44" s="277" t="s">
+      <c r="B44" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="277"/>
-      <c r="D44" s="277"/>
+      <c r="C44" s="244"/>
+      <c r="D44" s="244"/>
       <c r="E44" s="74"/>
       <c r="F44" s="100" t="s">
         <v>23</v>
@@ -26285,11 +26300,11 @@
     </row>
     <row r="45" spans="1:20" ht="13.5" customHeight="1">
       <c r="A45" s="83"/>
-      <c r="B45" s="278" t="s">
+      <c r="B45" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="278"/>
-      <c r="D45" s="278"/>
+      <c r="C45" s="245"/>
+      <c r="D45" s="245"/>
       <c r="E45" s="68"/>
       <c r="F45" s="75">
         <v>42254</v>
@@ -26325,11 +26340,11 @@
     </row>
     <row r="46" spans="1:20" ht="11.25" thickBot="1">
       <c r="A46" s="84"/>
-      <c r="B46" s="279" t="s">
+      <c r="B46" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="279"/>
-      <c r="D46" s="279"/>
+      <c r="C46" s="246"/>
+      <c r="D46" s="246"/>
       <c r="E46" s="77"/>
       <c r="F46" s="78"/>
       <c r="G46" s="78"/>
@@ -26352,11 +26367,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -26372,14 +26390,11 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -26411,7 +26426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -26436,55 +26451,55 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="284" t="s">
+      <c r="B2" s="269"/>
+      <c r="C2" s="287" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="288"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$11</f>
         <v>autoPayment</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
       <c r="L3" s="281"/>
       <c r="M3" s="281"/>
       <c r="N3" s="281"/>
@@ -26496,117 +26511,117 @@
       <c r="T3" s="163"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="287">
+      <c r="B4" s="255"/>
+      <c r="C4" s="284">
         <v>80</v>
       </c>
-      <c r="D4" s="267"/>
+      <c r="D4" s="260"/>
       <c r="E4" s="164"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-2.5999999999999996</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="288" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="285" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="288"/>
-      <c r="E5" s="288"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
-      <c r="I5" s="289"/>
-      <c r="J5" s="289"/>
-      <c r="K5" s="289"/>
-      <c r="L5" s="288"/>
-      <c r="M5" s="288"/>
-      <c r="N5" s="288"/>
-      <c r="O5" s="288"/>
-      <c r="P5" s="288"/>
-      <c r="Q5" s="288"/>
-      <c r="R5" s="288"/>
-      <c r="S5" s="288"/>
-      <c r="T5" s="288"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286"/>
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="285"/>
+      <c r="M5" s="285"/>
+      <c r="N5" s="285"/>
+      <c r="O5" s="285"/>
+      <c r="P5" s="285"/>
+      <c r="Q5" s="285"/>
+      <c r="R5" s="285"/>
+      <c r="S5" s="285"/>
+      <c r="T5" s="285"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F37:HQ37,"P")</f>
         <v>9</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F37:HQ37,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E36:HQ36,"N")</f>
         <v>2</v>
@@ -26619,15 +26634,15 @@
         <f>COUNTIF(E36:HQ36,"B")</f>
         <v>6</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>9</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -26931,10 +26946,10 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275">
+      <c r="D19" s="242">
         <v>59</v>
       </c>
-      <c r="E19" s="275"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90" t="s">
         <v>36</v>
       </c>
@@ -27425,11 +27440,11 @@
       <c r="A36" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="276" t="s">
+      <c r="B36" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="276"/>
-      <c r="D36" s="276"/>
+      <c r="C36" s="243"/>
+      <c r="D36" s="243"/>
       <c r="E36" s="73"/>
       <c r="F36" s="98" t="s">
         <v>19</v>
@@ -27467,11 +27482,11 @@
     </row>
     <row r="37" spans="1:20" ht="13.5" customHeight="1">
       <c r="A37" s="83"/>
-      <c r="B37" s="277" t="s">
+      <c r="B37" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="277"/>
-      <c r="D37" s="277"/>
+      <c r="C37" s="244"/>
+      <c r="D37" s="244"/>
       <c r="E37" s="74"/>
       <c r="F37" s="100" t="s">
         <v>23</v>
@@ -27509,11 +27524,11 @@
     </row>
     <row r="38" spans="1:20" ht="13.5" customHeight="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="278" t="s">
+      <c r="B38" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="278"/>
-      <c r="D38" s="278"/>
+      <c r="C38" s="245"/>
+      <c r="D38" s="245"/>
       <c r="E38" s="68"/>
       <c r="F38" s="75">
         <v>42338</v>
@@ -27551,11 +27566,11 @@
     </row>
     <row r="39" spans="1:20" ht="11.25" thickBot="1">
       <c r="A39" s="84"/>
-      <c r="B39" s="279" t="s">
+      <c r="B39" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="279"/>
-      <c r="D39" s="279"/>
+      <c r="C39" s="246"/>
+      <c r="D39" s="246"/>
       <c r="E39" s="77"/>
       <c r="F39" s="78"/>
       <c r="G39" s="78"/>
@@ -27578,16 +27593,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F4:K4"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B36:D36"/>
@@ -27599,13 +27611,16 @@
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -28617,59 +28632,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!D15</f>
         <v>createStoreID</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="253" t="s">
+      <c r="B3" s="255"/>
+      <c r="C3" s="277" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="256" t="s">
+      <c r="D3" s="278"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -28678,117 +28693,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-14.28</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>12</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>2</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>12</v>
@@ -28801,15 +28816,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>15</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -29081,8 +29096,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -29529,11 +29544,11 @@
       <c r="A39" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="125"/>
       <c r="F39" s="98" t="s">
         <v>19</v>
@@ -29583,11 +29598,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="83"/>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="74"/>
       <c r="F40" s="100" t="s">
         <v>23</v>
@@ -29635,11 +29650,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="68"/>
       <c r="F41" s="75">
         <v>42254</v>
@@ -29689,11 +29704,11 @@
     </row>
     <row r="42" spans="1:20" ht="75.75" thickBot="1">
       <c r="A42" s="84"/>
-      <c r="B42" s="279" t="s">
+      <c r="B42" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="279"/>
-      <c r="D42" s="279"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="77"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
@@ -29718,11 +29733,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -29738,14 +29756,11 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <phoneticPr fontId="40"/>
   <dataValidations count="3">
@@ -29802,59 +29817,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$23</f>
         <v>getIssueDetail</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -29863,117 +29878,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.28</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>1</v>
@@ -29986,15 +30001,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -30254,8 +30269,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -30730,11 +30745,11 @@
       <c r="A39" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="209"/>
       <c r="F39" s="98" t="s">
         <v>19</v>
@@ -30758,11 +30773,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="83"/>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="74"/>
       <c r="F40" s="100" t="s">
         <v>23</v>
@@ -30786,11 +30801,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="68"/>
       <c r="F41" s="75">
         <v>42254</v>
@@ -30814,11 +30829,11 @@
     </row>
     <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="84"/>
-      <c r="B42" s="279" t="s">
+      <c r="B42" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="279"/>
-      <c r="D42" s="279"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="77"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
@@ -30841,14 +30856,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -30864,11 +30876,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
@@ -30919,59 +30934,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$23</f>
         <v>getIssueDetail</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -30980,117 +30995,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.28</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>1</v>
@@ -31103,15 +31118,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -31371,8 +31386,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -31847,11 +31862,11 @@
       <c r="A39" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="209"/>
       <c r="F39" s="98" t="s">
         <v>19</v>
@@ -31875,11 +31890,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="83"/>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="74"/>
       <c r="F40" s="100" t="s">
         <v>23</v>
@@ -31903,11 +31918,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="68"/>
       <c r="F41" s="75">
         <v>42254</v>
@@ -31931,11 +31946,11 @@
     </row>
     <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="84"/>
-      <c r="B42" s="279" t="s">
+      <c r="B42" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="279"/>
-      <c r="D42" s="279"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="77"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
@@ -31958,14 +31973,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -31981,11 +31993,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
@@ -32036,59 +32051,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$23</f>
         <v>getIssueDetail</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -32097,117 +32112,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.28</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>1</v>
@@ -32220,15 +32235,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -32488,8 +32503,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -32964,11 +32979,11 @@
       <c r="A39" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="209"/>
       <c r="F39" s="98" t="s">
         <v>19</v>
@@ -32992,11 +33007,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="83"/>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="74"/>
       <c r="F40" s="100" t="s">
         <v>23</v>
@@ -33020,11 +33035,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="68"/>
       <c r="F41" s="75">
         <v>42254</v>
@@ -33048,11 +33063,11 @@
     </row>
     <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="84"/>
-      <c r="B42" s="279" t="s">
+      <c r="B42" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="279"/>
-      <c r="D42" s="279"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="77"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
@@ -33075,14 +33090,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -33098,11 +33110,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
@@ -33153,59 +33168,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$23</f>
         <v>getIssueDetail</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -33214,117 +33229,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.28</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>1</v>
@@ -33337,15 +33352,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -33605,8 +33620,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -34081,11 +34096,11 @@
       <c r="A39" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="209"/>
       <c r="F39" s="98" t="s">
         <v>19</v>
@@ -34109,11 +34124,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="83"/>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="74"/>
       <c r="F40" s="100" t="s">
         <v>23</v>
@@ -34137,11 +34152,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="68"/>
       <c r="F41" s="75">
         <v>42254</v>
@@ -34165,11 +34180,11 @@
     </row>
     <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="84"/>
-      <c r="B42" s="279" t="s">
+      <c r="B42" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="279"/>
-      <c r="D42" s="279"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="77"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
@@ -34192,14 +34207,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -34215,11 +34227,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:T39">
@@ -34270,59 +34285,59 @@
       <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244">
+      <c r="B2" s="269"/>
+      <c r="C2" s="270">
         <f>TestCaseList!E11</f>
         <v>0</v>
       </c>
-      <c r="D2" s="245"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="247" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
-      <c r="I2" s="247"/>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="248" t="str">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="274" t="str">
         <f>TestCaseList!$D$23</f>
         <v>getIssueDetail</v>
       </c>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="275"/>
+      <c r="R2" s="275"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="276"/>
       <c r="V2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="251" t="s">
+      <c r="A3" s="254" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="280" t="s">
         <v>248</v>
       </c>
       <c r="D3" s="281"/>
       <c r="E3" s="282"/>
-      <c r="F3" s="256" t="s">
+      <c r="F3" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -34331,117 +34346,117 @@
       <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="264">
+      <c r="B4" s="255"/>
+      <c r="C4" s="256">
         <v>9</v>
       </c>
-      <c r="D4" s="265"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="256" t="s">
+      <c r="F4" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="266">
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="259">
         <f xml:space="preserve"> IF(TestCaseList!E6&lt;&gt;"N/A",SUM(C4*TestCaseList!E6/1000,- O7),"N/A")</f>
         <v>-1.28</v>
       </c>
-      <c r="M4" s="267"/>
-      <c r="N4" s="267"/>
-      <c r="O4" s="267"/>
-      <c r="P4" s="267"/>
-      <c r="Q4" s="267"/>
-      <c r="R4" s="267"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="268"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
+      <c r="R4" s="260"/>
+      <c r="S4" s="260"/>
+      <c r="T4" s="261"/>
       <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="269" t="s">
+      <c r="B5" s="255"/>
+      <c r="C5" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="263"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="262"/>
+      <c r="P5" s="262"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
+      <c r="T5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="271" t="s">
+      <c r="A6" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="264"/>
+      <c r="C6" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272" t="s">
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="273" t="s">
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="266" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="274" t="s">
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="274"/>
-      <c r="R6" s="274"/>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="267"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="267"/>
       <c r="V6" s="40"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="257">
+      <c r="A7" s="247">
         <f>COUNTIF(F40:HQ40,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249">
         <f>COUNTIF(F40:HQ40,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259">
+      <c r="D7" s="250"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="249">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="261"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="251"/>
       <c r="L7" s="44">
         <f>COUNTIF(E39:HQ39,"N")</f>
         <v>1</v>
@@ -34454,15 +34469,15 @@
         <f>COUNTIF(E39:HQ39,"B")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="262">
+      <c r="O7" s="252">
         <f>COUNTA(E9:HT9)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="263"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="253"/>
       <c r="U7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -34722,8 +34737,8 @@
       <c r="A19" s="81"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
@@ -35198,11 +35213,11 @@
       <c r="A39" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="243"/>
       <c r="E39" s="209"/>
       <c r="F39" s="98" t="s">
         <v>19</v>
@@ -35226,11 +35241,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="83"/>
-      <c r="B40" s="277" t="s">
+      <c r="B40" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="244"/>
       <c r="E40" s="74"/>
       <c r="F40" s="100" t="s">
         <v>23</v>
@@ -35254,11 +35269,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1">
       <c r="A41" s="83"/>
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="245" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="278"/>
-      <c r="D41" s="278"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="68"/>
       <c r="F41" s="75">
         <v>42254</v>
@@ -35282,11 +35297,11 @@
     </row>
     <row r="42" spans="1:20" ht="11.25" thickBot="1">
       <c r="A42" s="84"/>
-      <c r="B42" s="279" t="s">
+      <c r="B42" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="279"/>
-      <c r="D42" s="279"/>
+      <c r="C42" s="246"/>
+      <c r="D42" s="246"/>
       <c r="E42" s="77"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
@@ -35309,14 +35324,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -35332,11 +35344,14 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T38">
